--- a/rental_contracts.xlsx
+++ b/rental_contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5191530E-4161-459B-965D-43F8D4EE117D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD0852-11F0-428A-B8A2-1B1B022DC0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{1A806A1D-3B78-41DF-B909-F3EF814F68D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>주소</t>
   </si>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>임종완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E579C7-7479-4EB5-B061-37A1EDB3AFE8}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
@@ -1132,6 +1140,32 @@
         <v>46385</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="10">
+        <v>580000000</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="15">
+        <v>45898</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rental_contracts.xlsx
+++ b/rental_contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD0852-11F0-428A-B8A2-1B1B022DC0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D97DE3-B751-45CB-B53E-877B36465561}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{1A806A1D-3B78-41DF-B909-F3EF814F68D8}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="15">
-        <v>45898</v>
+        <v>45870</v>
       </c>
     </row>
   </sheetData>

--- a/rental_contracts.xlsx
+++ b/rental_contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D97DE3-B751-45CB-B53E-877B36465561}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C033921-EEFC-4497-99DA-FABCC97BCE3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{1A806A1D-3B78-41DF-B909-F3EF814F68D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>주소</t>
   </si>
@@ -254,8 +254,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>테스트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05</t>
   </si>
 </sst>
 </file>
@@ -705,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E579C7-7479-4EB5-B061-37A1EDB3AFE8}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
@@ -1166,6 +1173,32 @@
         <v>45870</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="10">
+        <v>162000000</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="15">
+        <v>45839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rental_contracts.xlsx
+++ b/rental_contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C033921-EEFC-4497-99DA-FABCC97BCE3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD0852-11F0-428A-B8A2-1B1B022DC0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{1A806A1D-3B78-41DF-B909-F3EF814F68D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>주소</t>
   </si>
@@ -254,15 +254,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A05</t>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E579C7-7479-4EB5-B061-37A1EDB3AFE8}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
@@ -1170,33 +1163,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="15">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="10">
-        <v>162000000</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="15">
-        <v>45839</v>
+        <v>45898</v>
       </c>
     </row>
   </sheetData>
